--- a/abzug/böm.xlsx
+++ b/abzug/böm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4995" uniqueCount="2271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4994" uniqueCount="2270">
   <si>
     <t>idn</t>
   </si>
@@ -6725,9 +6725,6 @@
   </si>
   <si>
     <t>Schenkg Kirchhoff</t>
-  </si>
-  <si>
-    <t>vorhandene Taf.: Laurentinum II, III, Tuscorum II, III</t>
   </si>
   <si>
     <t>Einband von Jakob Krause, durch Hitzeeinwirkg während der kriegsbedingten Auslagerung schwer zerstört, 1968/69 restauriert in der DB-Werkstatt. - Originalzustand beschrieben von Christel Schmidt: Jakob Krause. Leipzig 1923, S. 77 u. Taf. 36</t>
@@ -7284,10 +7281,10 @@
         <v>1783</v>
       </c>
       <c r="S2" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T2" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -7319,10 +7316,10 @@
         <v>1784</v>
       </c>
       <c r="S3" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T3" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -7354,10 +7351,10 @@
         <v>1785</v>
       </c>
       <c r="S4" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T4" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -7392,10 +7389,10 @@
         <v>2178</v>
       </c>
       <c r="S5" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T5" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -7430,10 +7427,10 @@
         <v>2179</v>
       </c>
       <c r="S6" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T6" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -7465,10 +7462,10 @@
         <v>1788</v>
       </c>
       <c r="S7" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T7" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -7503,10 +7500,10 @@
         <v>2180</v>
       </c>
       <c r="S8" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T8" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7538,10 +7535,10 @@
         <v>1790</v>
       </c>
       <c r="S9" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T9" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -7573,10 +7570,10 @@
         <v>1791</v>
       </c>
       <c r="S10" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T10" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -7611,10 +7608,10 @@
         <v>2181</v>
       </c>
       <c r="S11" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T11" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -7649,10 +7646,10 @@
         <v>2182</v>
       </c>
       <c r="S12" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T12" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -7684,10 +7681,10 @@
         <v>1794</v>
       </c>
       <c r="S13" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T13" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -7719,10 +7716,10 @@
         <v>1795</v>
       </c>
       <c r="S14" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T14" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -7754,10 +7751,10 @@
         <v>1796</v>
       </c>
       <c r="S15" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T15" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -7789,10 +7786,10 @@
         <v>1797</v>
       </c>
       <c r="S16" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T16" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -7824,10 +7821,10 @@
         <v>1798</v>
       </c>
       <c r="S17" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T17" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -7859,10 +7856,10 @@
         <v>1799</v>
       </c>
       <c r="S18" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T18" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -7894,10 +7891,10 @@
         <v>1800</v>
       </c>
       <c r="S19" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T19" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -7929,10 +7926,10 @@
         <v>1801</v>
       </c>
       <c r="S20" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T20" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -7964,10 +7961,10 @@
         <v>1802</v>
       </c>
       <c r="S21" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T21" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -7999,10 +7996,10 @@
         <v>1803</v>
       </c>
       <c r="S22" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T22" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -8034,10 +8031,10 @@
         <v>1804</v>
       </c>
       <c r="S23" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T23" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -8072,10 +8069,10 @@
         <v>2183</v>
       </c>
       <c r="S24" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T24" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -8107,10 +8104,10 @@
         <v>1806</v>
       </c>
       <c r="S25" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T25" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -8142,10 +8139,10 @@
         <v>1807</v>
       </c>
       <c r="S26" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T26" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -8177,10 +8174,10 @@
         <v>1808</v>
       </c>
       <c r="S27" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T27" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -8212,10 +8209,10 @@
         <v>1809</v>
       </c>
       <c r="S28" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T28" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -8244,10 +8241,10 @@
         <v>1710</v>
       </c>
       <c r="S29" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T29" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -8276,10 +8273,10 @@
         <v>1711</v>
       </c>
       <c r="S30" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T30" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -8311,10 +8308,10 @@
         <v>1810</v>
       </c>
       <c r="S31" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T31" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -8346,10 +8343,10 @@
         <v>1811</v>
       </c>
       <c r="S32" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T32" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -8384,10 +8381,10 @@
         <v>2184</v>
       </c>
       <c r="S33" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T33" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -8422,10 +8419,10 @@
         <v>2185</v>
       </c>
       <c r="S34" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T34" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -8460,10 +8457,10 @@
         <v>2186</v>
       </c>
       <c r="S35" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T35" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -8498,10 +8495,10 @@
         <v>2186</v>
       </c>
       <c r="S36" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T36" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -8533,10 +8530,10 @@
         <v>1816</v>
       </c>
       <c r="S37" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T37" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -8571,10 +8568,10 @@
         <v>2186</v>
       </c>
       <c r="S38" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T38" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -8606,10 +8603,10 @@
         <v>1818</v>
       </c>
       <c r="S39" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T39" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -8641,10 +8638,10 @@
         <v>1819</v>
       </c>
       <c r="S40" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T40" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -8676,13 +8673,13 @@
         <v>1820</v>
       </c>
       <c r="S41" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T41" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="U41" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -8714,10 +8711,10 @@
         <v>1821</v>
       </c>
       <c r="S42" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T42" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -8749,10 +8746,10 @@
         <v>1822</v>
       </c>
       <c r="S43" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T43" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -8784,10 +8781,10 @@
         <v>1823</v>
       </c>
       <c r="S44" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T44" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -8822,10 +8819,10 @@
         <v>2187</v>
       </c>
       <c r="S45" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T45" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -8857,10 +8854,10 @@
         <v>1825</v>
       </c>
       <c r="S46" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T46" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -8895,10 +8892,10 @@
         <v>2188</v>
       </c>
       <c r="S47" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T47" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -8933,13 +8930,13 @@
         <v>2189</v>
       </c>
       <c r="S48" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T48" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="U48" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -8974,10 +8971,10 @@
         <v>2190</v>
       </c>
       <c r="S49" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T49" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -9009,10 +9006,10 @@
         <v>1829</v>
       </c>
       <c r="S50" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T50" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -9044,10 +9041,10 @@
         <v>1830</v>
       </c>
       <c r="S51" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T51" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -9079,10 +9076,10 @@
         <v>1831</v>
       </c>
       <c r="S52" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T52" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -9114,10 +9111,10 @@
         <v>1832</v>
       </c>
       <c r="S53" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T53" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -9149,10 +9146,10 @@
         <v>1833</v>
       </c>
       <c r="S54" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T54" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -9184,10 +9181,10 @@
         <v>1834</v>
       </c>
       <c r="S55" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T55" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -9219,10 +9216,10 @@
         <v>1835</v>
       </c>
       <c r="S56" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T56" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -9257,10 +9254,10 @@
         <v>2191</v>
       </c>
       <c r="S57" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T57" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -9292,10 +9289,10 @@
         <v>1837</v>
       </c>
       <c r="S58" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T58" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -9330,10 +9327,10 @@
         <v>2192</v>
       </c>
       <c r="S59" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T59" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -9368,10 +9365,10 @@
         <v>2193</v>
       </c>
       <c r="S60" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T60" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -9403,10 +9400,10 @@
         <v>1840</v>
       </c>
       <c r="S61" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T61" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -9441,10 +9438,10 @@
         <v>2194</v>
       </c>
       <c r="S62" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T62" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -9476,10 +9473,10 @@
         <v>1842</v>
       </c>
       <c r="S63" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T63" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -9511,10 +9508,10 @@
         <v>1843</v>
       </c>
       <c r="S64" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T64" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -9546,10 +9543,10 @@
         <v>1844</v>
       </c>
       <c r="S65" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T65" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -9584,10 +9581,10 @@
         <v>2195</v>
       </c>
       <c r="S66" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T66" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -9619,10 +9616,10 @@
         <v>1846</v>
       </c>
       <c r="S67" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T67" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -9654,10 +9651,10 @@
         <v>1847</v>
       </c>
       <c r="S68" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T68" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -9689,10 +9686,10 @@
         <v>1848</v>
       </c>
       <c r="S69" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T69" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -9727,10 +9724,10 @@
         <v>2196</v>
       </c>
       <c r="S70" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T70" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -9762,10 +9759,10 @@
         <v>1850</v>
       </c>
       <c r="S71" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T71" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -9797,10 +9794,10 @@
         <v>1802</v>
       </c>
       <c r="S72" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T72" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -9832,10 +9829,10 @@
         <v>1851</v>
       </c>
       <c r="S73" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T73" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -9867,10 +9864,10 @@
         <v>1852</v>
       </c>
       <c r="S74" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T74" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -9902,10 +9899,10 @@
         <v>1853</v>
       </c>
       <c r="S75" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T75" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -9937,10 +9934,10 @@
         <v>1854</v>
       </c>
       <c r="S76" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T76" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -9972,10 +9969,10 @@
         <v>1855</v>
       </c>
       <c r="S77" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T77" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -10010,10 +10007,10 @@
         <v>2197</v>
       </c>
       <c r="S78" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T78" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -10048,10 +10045,10 @@
         <v>2198</v>
       </c>
       <c r="S79" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T79" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -10083,10 +10080,10 @@
         <v>1858</v>
       </c>
       <c r="S80" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T80" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -10118,10 +10115,10 @@
         <v>1859</v>
       </c>
       <c r="S81" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T81" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -10153,10 +10150,10 @@
         <v>1860</v>
       </c>
       <c r="S82" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T82" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -10188,10 +10185,10 @@
         <v>1861</v>
       </c>
       <c r="S83" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T83" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -10226,10 +10223,10 @@
         <v>2199</v>
       </c>
       <c r="S84" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T84" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -10264,10 +10261,10 @@
         <v>2199</v>
       </c>
       <c r="S85" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T85" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -10302,10 +10299,10 @@
         <v>2199</v>
       </c>
       <c r="S86" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T86" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -10340,10 +10337,10 @@
         <v>2199</v>
       </c>
       <c r="S87" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T87" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -10375,10 +10372,10 @@
         <v>1862</v>
       </c>
       <c r="S88" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T88" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -10410,10 +10407,10 @@
         <v>1863</v>
       </c>
       <c r="S89" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T89" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -10445,10 +10442,10 @@
         <v>1864</v>
       </c>
       <c r="S90" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T90" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -10480,10 +10477,10 @@
         <v>1865</v>
       </c>
       <c r="S91" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T91" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -10518,10 +10515,10 @@
         <v>2200</v>
       </c>
       <c r="S92" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T92" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -10556,10 +10553,10 @@
         <v>2201</v>
       </c>
       <c r="S93" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T93" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -10594,10 +10591,10 @@
         <v>2202</v>
       </c>
       <c r="S94" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T94" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -10632,10 +10629,10 @@
         <v>2203</v>
       </c>
       <c r="S95" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T95" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -10667,10 +10664,10 @@
         <v>1870</v>
       </c>
       <c r="S96" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T96" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -10702,10 +10699,10 @@
         <v>1871</v>
       </c>
       <c r="S97" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T97" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -10737,10 +10734,10 @@
         <v>1872</v>
       </c>
       <c r="S98" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T98" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -10775,10 +10772,10 @@
         <v>2204</v>
       </c>
       <c r="S99" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T99" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -10813,10 +10810,10 @@
         <v>2205</v>
       </c>
       <c r="S100" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T100" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -10851,10 +10848,10 @@
         <v>2206</v>
       </c>
       <c r="S101" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T101" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -10889,10 +10886,10 @@
         <v>2207</v>
       </c>
       <c r="S102" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T102" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -10924,10 +10921,10 @@
         <v>1877</v>
       </c>
       <c r="S103" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T103" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -10962,10 +10959,10 @@
         <v>2208</v>
       </c>
       <c r="S104" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T104" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -10997,10 +10994,10 @@
         <v>1878</v>
       </c>
       <c r="S105" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T105" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -11032,10 +11029,10 @@
         <v>1879</v>
       </c>
       <c r="S106" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T106" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -11067,10 +11064,10 @@
         <v>1880</v>
       </c>
       <c r="S107" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T107" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -11102,10 +11099,10 @@
         <v>1881</v>
       </c>
       <c r="S108" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T108" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -11137,10 +11134,10 @@
         <v>1882</v>
       </c>
       <c r="S109" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T109" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -11172,10 +11169,10 @@
         <v>1802</v>
       </c>
       <c r="S110" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T110" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -11207,10 +11204,10 @@
         <v>1883</v>
       </c>
       <c r="S111" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T111" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -11242,10 +11239,10 @@
         <v>1884</v>
       </c>
       <c r="S112" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T112" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -11277,10 +11274,10 @@
         <v>1885</v>
       </c>
       <c r="S113" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T113" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -11312,10 +11309,10 @@
         <v>1886</v>
       </c>
       <c r="S114" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T114" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -11350,10 +11347,10 @@
         <v>2209</v>
       </c>
       <c r="S115" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T115" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -11388,10 +11385,10 @@
         <v>2209</v>
       </c>
       <c r="S116" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T116" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -11426,10 +11423,10 @@
         <v>2209</v>
       </c>
       <c r="S117" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T117" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -11464,10 +11461,10 @@
         <v>2209</v>
       </c>
       <c r="S118" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T118" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -11499,10 +11496,10 @@
         <v>1891</v>
       </c>
       <c r="S119" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T119" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -11534,10 +11531,10 @@
         <v>1892</v>
       </c>
       <c r="S120" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T120" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -11569,10 +11566,10 @@
         <v>1893</v>
       </c>
       <c r="S121" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T121" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -11604,10 +11601,10 @@
         <v>1894</v>
       </c>
       <c r="S122" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T122" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -11639,10 +11636,10 @@
         <v>1895</v>
       </c>
       <c r="S123" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T123" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -11677,10 +11674,10 @@
         <v>2209</v>
       </c>
       <c r="S124" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T124" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -11712,10 +11709,10 @@
         <v>1897</v>
       </c>
       <c r="S125" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T125" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -11747,10 +11744,10 @@
         <v>1898</v>
       </c>
       <c r="S126" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T126" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -11782,10 +11779,10 @@
         <v>1899</v>
       </c>
       <c r="S127" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T127" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -11820,10 +11817,10 @@
         <v>2210</v>
       </c>
       <c r="S128" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T128" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -11858,10 +11855,10 @@
         <v>2211</v>
       </c>
       <c r="S129" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T129" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -11896,10 +11893,10 @@
         <v>2211</v>
       </c>
       <c r="S130" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T130" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -11934,10 +11931,10 @@
         <v>2212</v>
       </c>
       <c r="S131" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T131" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -11969,10 +11966,10 @@
         <v>1904</v>
       </c>
       <c r="S132" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T132" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -12004,10 +12001,10 @@
         <v>1905</v>
       </c>
       <c r="S133" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T133" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -12039,10 +12036,10 @@
         <v>1906</v>
       </c>
       <c r="S134" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T134" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -12074,10 +12071,10 @@
         <v>1907</v>
       </c>
       <c r="S135" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T135" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -12109,10 +12106,10 @@
         <v>1908</v>
       </c>
       <c r="S136" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T136" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -12144,10 +12141,10 @@
         <v>1802</v>
       </c>
       <c r="S137" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T137" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -12179,10 +12176,10 @@
         <v>1909</v>
       </c>
       <c r="S138" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T138" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -12217,10 +12214,10 @@
         <v>2213</v>
       </c>
       <c r="S139" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T139" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -12255,10 +12252,10 @@
         <v>2214</v>
       </c>
       <c r="S140" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T140" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -12290,10 +12287,10 @@
         <v>1912</v>
       </c>
       <c r="S141" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T141" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -12325,10 +12322,10 @@
         <v>1913</v>
       </c>
       <c r="S142" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T142" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -12360,10 +12357,10 @@
         <v>1914</v>
       </c>
       <c r="S143" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T143" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -12398,10 +12395,10 @@
         <v>2215</v>
       </c>
       <c r="S144" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T144" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -12433,10 +12430,10 @@
         <v>1916</v>
       </c>
       <c r="S145" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T145" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -12468,10 +12465,10 @@
         <v>1917</v>
       </c>
       <c r="S146" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T146" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -12503,10 +12500,10 @@
         <v>1918</v>
       </c>
       <c r="S147" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T147" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -12538,10 +12535,10 @@
         <v>1919</v>
       </c>
       <c r="S148" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T148" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -12573,10 +12570,10 @@
         <v>1920</v>
       </c>
       <c r="S149" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T149" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -12608,10 +12605,10 @@
         <v>1921</v>
       </c>
       <c r="S150" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T150" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -12643,10 +12640,10 @@
         <v>1922</v>
       </c>
       <c r="S151" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T151" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -12681,10 +12678,10 @@
         <v>2209</v>
       </c>
       <c r="S152" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T152" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -12719,10 +12716,10 @@
         <v>2209</v>
       </c>
       <c r="S153" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T153" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -12757,10 +12754,10 @@
         <v>2209</v>
       </c>
       <c r="S154" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T154" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -12792,10 +12789,10 @@
         <v>1802</v>
       </c>
       <c r="S155" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T155" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -12830,10 +12827,10 @@
         <v>2216</v>
       </c>
       <c r="S156" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T156" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -12868,10 +12865,10 @@
         <v>2217</v>
       </c>
       <c r="S157" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T157" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -12906,10 +12903,10 @@
         <v>2218</v>
       </c>
       <c r="S158" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T158" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -12944,10 +12941,10 @@
         <v>2219</v>
       </c>
       <c r="S159" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T159" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -12979,10 +12976,10 @@
         <v>1930</v>
       </c>
       <c r="S160" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T160" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -13014,10 +13011,10 @@
         <v>1931</v>
       </c>
       <c r="S161" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T161" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -13049,10 +13046,10 @@
         <v>1932</v>
       </c>
       <c r="S162" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T162" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -13087,10 +13084,10 @@
         <v>2220</v>
       </c>
       <c r="S163" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T163" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -13122,10 +13119,10 @@
         <v>1934</v>
       </c>
       <c r="S164" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T164" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -13157,10 +13154,10 @@
         <v>1935</v>
       </c>
       <c r="S165" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T165" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -13192,10 +13189,10 @@
         <v>1936</v>
       </c>
       <c r="S166" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T166" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -13227,10 +13224,10 @@
         <v>1937</v>
       </c>
       <c r="S167" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T167" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -13262,10 +13259,10 @@
         <v>1938</v>
       </c>
       <c r="S168" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T168" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -13297,10 +13294,10 @@
         <v>1939</v>
       </c>
       <c r="S169" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T169" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -13332,10 +13329,10 @@
         <v>1884</v>
       </c>
       <c r="S170" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T170" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -13367,10 +13364,10 @@
         <v>1940</v>
       </c>
       <c r="S171" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T171" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -13402,10 +13399,10 @@
         <v>1941</v>
       </c>
       <c r="S172" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T172" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -13437,10 +13434,10 @@
         <v>1942</v>
       </c>
       <c r="S173" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T173" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -13475,10 +13472,10 @@
         <v>2221</v>
       </c>
       <c r="S174" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T174" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -13513,10 +13510,10 @@
         <v>2222</v>
       </c>
       <c r="S175" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T175" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -13548,10 +13545,10 @@
         <v>1945</v>
       </c>
       <c r="S176" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T176" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -13583,10 +13580,10 @@
         <v>1946</v>
       </c>
       <c r="S177" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T177" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -13618,10 +13615,10 @@
         <v>1947</v>
       </c>
       <c r="S178" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T178" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -13653,10 +13650,10 @@
         <v>1948</v>
       </c>
       <c r="S179" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T179" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -13688,10 +13685,10 @@
         <v>1949</v>
       </c>
       <c r="S180" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T180" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -13726,10 +13723,10 @@
         <v>2213</v>
       </c>
       <c r="S181" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T181" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -13761,10 +13758,10 @@
         <v>1951</v>
       </c>
       <c r="S182" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T182" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -13796,10 +13793,10 @@
         <v>1911</v>
       </c>
       <c r="S183" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T183" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -13831,10 +13828,10 @@
         <v>1952</v>
       </c>
       <c r="S184" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T184" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -13869,10 +13866,10 @@
         <v>2209</v>
       </c>
       <c r="S185" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T185" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -13904,10 +13901,10 @@
         <v>1954</v>
       </c>
       <c r="S186" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T186" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -13939,10 +13936,10 @@
         <v>1955</v>
       </c>
       <c r="S187" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T187" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -13974,10 +13971,10 @@
         <v>1956</v>
       </c>
       <c r="S188" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T188" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -14009,10 +14006,10 @@
         <v>1957</v>
       </c>
       <c r="S189" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T189" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -14047,10 +14044,10 @@
         <v>2223</v>
       </c>
       <c r="S190" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T190" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -14082,10 +14079,10 @@
         <v>1959</v>
       </c>
       <c r="S191" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T191" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -14117,10 +14114,10 @@
         <v>1960</v>
       </c>
       <c r="S192" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T192" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -14152,10 +14149,10 @@
         <v>1961</v>
       </c>
       <c r="S193" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T193" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -14187,10 +14184,10 @@
         <v>1962</v>
       </c>
       <c r="S194" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T194" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -14222,10 +14219,10 @@
         <v>1963</v>
       </c>
       <c r="S195" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T195" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -14257,10 +14254,10 @@
         <v>1964</v>
       </c>
       <c r="S196" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T196" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -14292,10 +14289,10 @@
         <v>1965</v>
       </c>
       <c r="S197" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T197" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -14327,10 +14324,10 @@
         <v>1966</v>
       </c>
       <c r="S198" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T198" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -14365,10 +14362,10 @@
         <v>2224</v>
       </c>
       <c r="S199" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T199" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -14403,10 +14400,10 @@
         <v>2224</v>
       </c>
       <c r="S200" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T200" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -14438,10 +14435,10 @@
         <v>1969</v>
       </c>
       <c r="S201" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T201" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -14473,10 +14470,10 @@
         <v>1969</v>
       </c>
       <c r="S202" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T202" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -14508,10 +14505,10 @@
         <v>1970</v>
       </c>
       <c r="S203" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T203" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -14543,10 +14540,10 @@
         <v>1971</v>
       </c>
       <c r="S204" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T204" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -14578,10 +14575,10 @@
         <v>1972</v>
       </c>
       <c r="S205" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T205" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -14613,10 +14610,10 @@
         <v>1973</v>
       </c>
       <c r="S206" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T206" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -14651,10 +14648,10 @@
         <v>2225</v>
       </c>
       <c r="S207" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T207" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -14686,10 +14683,10 @@
         <v>1975</v>
       </c>
       <c r="S208" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T208" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -14721,10 +14718,10 @@
         <v>1976</v>
       </c>
       <c r="S209" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T209" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -14756,10 +14753,10 @@
         <v>1977</v>
       </c>
       <c r="S210" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T210" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -14791,10 +14788,10 @@
         <v>1978</v>
       </c>
       <c r="S211" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T211" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -14826,10 +14823,10 @@
         <v>1979</v>
       </c>
       <c r="S212" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T212" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -14861,10 +14858,10 @@
         <v>1980</v>
       </c>
       <c r="S213" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T213" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -14899,10 +14896,10 @@
         <v>2226</v>
       </c>
       <c r="S214" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T214" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -14934,10 +14931,10 @@
         <v>1982</v>
       </c>
       <c r="S215" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T215" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -14969,10 +14966,10 @@
         <v>1983</v>
       </c>
       <c r="S216" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T216" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -15004,10 +15001,10 @@
         <v>1984</v>
       </c>
       <c r="S217" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T217" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -15042,10 +15039,10 @@
         <v>2227</v>
       </c>
       <c r="S218" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T218" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -15080,10 +15077,10 @@
         <v>2228</v>
       </c>
       <c r="S219" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T219" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -15115,10 +15112,10 @@
         <v>1987</v>
       </c>
       <c r="S220" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T220" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -15153,10 +15150,10 @@
         <v>2229</v>
       </c>
       <c r="S221" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T221" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -15188,10 +15185,10 @@
         <v>1989</v>
       </c>
       <c r="S222" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T222" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -15223,10 +15220,10 @@
         <v>1990</v>
       </c>
       <c r="S223" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T223" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -15261,10 +15258,10 @@
         <v>2230</v>
       </c>
       <c r="S224" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T224" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -15296,10 +15293,10 @@
         <v>1992</v>
       </c>
       <c r="S225" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T225" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -15334,10 +15331,10 @@
         <v>2231</v>
       </c>
       <c r="S226" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T226" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -15369,10 +15366,10 @@
         <v>1994</v>
       </c>
       <c r="S227" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T227" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -15404,10 +15401,10 @@
         <v>1995</v>
       </c>
       <c r="S228" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T228" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -15439,10 +15436,10 @@
         <v>1996</v>
       </c>
       <c r="S229" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T229" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -15474,10 +15471,10 @@
         <v>1997</v>
       </c>
       <c r="S230" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T230" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -15509,10 +15506,10 @@
         <v>1998</v>
       </c>
       <c r="S231" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T231" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -15544,10 +15541,10 @@
         <v>1999</v>
       </c>
       <c r="S232" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T232" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -15579,10 +15576,10 @@
         <v>2000</v>
       </c>
       <c r="S233" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T233" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -15614,10 +15611,10 @@
         <v>1911</v>
       </c>
       <c r="S234" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T234" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -15652,10 +15649,10 @@
         <v>2232</v>
       </c>
       <c r="S235" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T235" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -15687,10 +15684,10 @@
         <v>1911</v>
       </c>
       <c r="S236" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T236" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -15722,10 +15719,10 @@
         <v>2002</v>
       </c>
       <c r="S237" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T237" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -15757,10 +15754,10 @@
         <v>2003</v>
       </c>
       <c r="S238" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T238" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -15792,10 +15789,10 @@
         <v>1802</v>
       </c>
       <c r="S239" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T239" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -15827,10 +15824,10 @@
         <v>2004</v>
       </c>
       <c r="S240" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T240" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -15865,10 +15862,10 @@
         <v>2209</v>
       </c>
       <c r="S241" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T241" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -15900,10 +15897,10 @@
         <v>2006</v>
       </c>
       <c r="S242" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T242" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -15938,10 +15935,10 @@
         <v>2209</v>
       </c>
       <c r="S243" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T243" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -15976,10 +15973,10 @@
         <v>2209</v>
       </c>
       <c r="S244" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T244" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -16014,10 +16011,10 @@
         <v>2233</v>
       </c>
       <c r="S245" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T245" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -16052,10 +16049,10 @@
         <v>2234</v>
       </c>
       <c r="S246" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T246" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -16087,10 +16084,10 @@
         <v>2011</v>
       </c>
       <c r="S247" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T247" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -16122,10 +16119,10 @@
         <v>1802</v>
       </c>
       <c r="S248" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T248" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -16157,10 +16154,10 @@
         <v>2012</v>
       </c>
       <c r="S249" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T249" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -16192,10 +16189,10 @@
         <v>2013</v>
       </c>
       <c r="S250" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T250" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -16227,10 +16224,10 @@
         <v>2014</v>
       </c>
       <c r="S251" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T251" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -16262,10 +16259,10 @@
         <v>1911</v>
       </c>
       <c r="S252" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T252" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -16297,10 +16294,10 @@
         <v>2015</v>
       </c>
       <c r="S253" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T253" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="254" spans="1:20">
@@ -16335,10 +16332,10 @@
         <v>2235</v>
       </c>
       <c r="S254" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T254" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -16370,10 +16367,10 @@
         <v>1802</v>
       </c>
       <c r="S255" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T255" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -16405,10 +16402,10 @@
         <v>2017</v>
       </c>
       <c r="S256" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T256" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -16440,10 +16437,10 @@
         <v>2018</v>
       </c>
       <c r="S257" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T257" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="258" spans="1:20">
@@ -16475,10 +16472,10 @@
         <v>2019</v>
       </c>
       <c r="S258" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T258" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="259" spans="1:20">
@@ -16510,10 +16507,10 @@
         <v>2020</v>
       </c>
       <c r="S259" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T259" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -16548,10 +16545,10 @@
         <v>2236</v>
       </c>
       <c r="S260" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T260" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -16582,14 +16579,11 @@
       <c r="I261" t="s">
         <v>2022</v>
       </c>
-      <c r="Q261" t="s">
-        <v>2237</v>
-      </c>
       <c r="S261" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T261" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -16621,10 +16615,10 @@
         <v>2023</v>
       </c>
       <c r="S262" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T262" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -16656,10 +16650,10 @@
         <v>2005</v>
       </c>
       <c r="S263" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T263" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -16691,10 +16685,10 @@
         <v>2024</v>
       </c>
       <c r="S264" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T264" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -16726,10 +16720,10 @@
         <v>2025</v>
       </c>
       <c r="S265" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T265" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -16764,10 +16758,10 @@
         <v>2209</v>
       </c>
       <c r="S266" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T266" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -16799,10 +16793,10 @@
         <v>2027</v>
       </c>
       <c r="S267" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T267" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="268" spans="1:20">
@@ -16834,10 +16828,10 @@
         <v>2028</v>
       </c>
       <c r="S268" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T268" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -16869,10 +16863,10 @@
         <v>2029</v>
       </c>
       <c r="S269" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T269" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -16904,10 +16898,10 @@
         <v>2030</v>
       </c>
       <c r="S270" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T270" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -16939,10 +16933,10 @@
         <v>2031</v>
       </c>
       <c r="S271" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T271" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -16974,10 +16968,10 @@
         <v>2032</v>
       </c>
       <c r="S272" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T272" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -17009,10 +17003,10 @@
         <v>1814</v>
       </c>
       <c r="S273" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T273" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -17044,10 +17038,10 @@
         <v>2033</v>
       </c>
       <c r="S274" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T274" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="275" spans="1:20">
@@ -17079,10 +17073,10 @@
         <v>2034</v>
       </c>
       <c r="S275" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T275" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="276" spans="1:20">
@@ -17117,10 +17111,10 @@
         <v>2236</v>
       </c>
       <c r="S276" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T276" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="277" spans="1:20">
@@ -17152,10 +17146,10 @@
         <v>2035</v>
       </c>
       <c r="S277" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T277" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="278" spans="1:20">
@@ -17187,10 +17181,10 @@
         <v>2036</v>
       </c>
       <c r="S278" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T278" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -17225,10 +17219,10 @@
         <v>2226</v>
       </c>
       <c r="S279" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T279" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -17260,10 +17254,10 @@
         <v>2038</v>
       </c>
       <c r="S280" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T280" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -17295,10 +17289,10 @@
         <v>2039</v>
       </c>
       <c r="S281" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T281" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="282" spans="1:20">
@@ -17330,10 +17324,10 @@
         <v>1991</v>
       </c>
       <c r="S282" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T282" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="283" spans="1:20">
@@ -17365,10 +17359,10 @@
         <v>2040</v>
       </c>
       <c r="S283" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T283" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="284" spans="1:20">
@@ -17400,10 +17394,10 @@
         <v>2041</v>
       </c>
       <c r="S284" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T284" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="285" spans="1:20">
@@ -17435,10 +17429,10 @@
         <v>1884</v>
       </c>
       <c r="S285" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T285" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="286" spans="1:20">
@@ -17473,10 +17467,10 @@
         <v>2209</v>
       </c>
       <c r="S286" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T286" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="287" spans="1:20">
@@ -17505,10 +17499,10 @@
         <v>1708</v>
       </c>
       <c r="S287" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T287" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="288" spans="1:20">
@@ -17540,13 +17534,13 @@
         <v>2043</v>
       </c>
       <c r="Q288" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="S288" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T288" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="289" spans="1:20">
@@ -17578,13 +17572,13 @@
         <v>2044</v>
       </c>
       <c r="Q289" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="S289" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T289" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="290" spans="1:20">
@@ -17616,10 +17610,10 @@
         <v>2045</v>
       </c>
       <c r="S290" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T290" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="291" spans="1:20">
@@ -17651,10 +17645,10 @@
         <v>2046</v>
       </c>
       <c r="S291" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T291" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="292" spans="1:20">
@@ -17686,10 +17680,10 @@
         <v>2047</v>
       </c>
       <c r="S292" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T292" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="293" spans="1:20">
@@ -17721,10 +17715,10 @@
         <v>2048</v>
       </c>
       <c r="S293" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T293" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="294" spans="1:20">
@@ -17759,10 +17753,10 @@
         <v>2226</v>
       </c>
       <c r="S294" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T294" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="295" spans="1:20">
@@ -17794,10 +17788,10 @@
         <v>2050</v>
       </c>
       <c r="S295" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T295" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="296" spans="1:20">
@@ -17832,10 +17826,10 @@
         <v>2213</v>
       </c>
       <c r="S296" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T296" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="297" spans="1:20">
@@ -17867,10 +17861,10 @@
         <v>2052</v>
       </c>
       <c r="S297" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T297" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="298" spans="1:20">
@@ -17902,10 +17896,10 @@
         <v>2053</v>
       </c>
       <c r="S298" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T298" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="299" spans="1:20">
@@ -17940,10 +17934,10 @@
         <v>2209</v>
       </c>
       <c r="S299" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T299" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="300" spans="1:20">
@@ -17978,10 +17972,10 @@
         <v>2209</v>
       </c>
       <c r="S300" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T300" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="301" spans="1:20">
@@ -18013,13 +18007,13 @@
         <v>2056</v>
       </c>
       <c r="Q301" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="S301" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T301" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="302" spans="1:20">
@@ -18051,10 +18045,10 @@
         <v>2057</v>
       </c>
       <c r="S302" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T302" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="303" spans="1:20">
@@ -18086,13 +18080,13 @@
         <v>2058</v>
       </c>
       <c r="Q303" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="S303" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T303" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="304" spans="1:20">
@@ -18124,10 +18118,10 @@
         <v>2059</v>
       </c>
       <c r="S304" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T304" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="305" spans="1:20">
@@ -18159,10 +18153,10 @@
         <v>2060</v>
       </c>
       <c r="S305" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T305" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="306" spans="1:20">
@@ -18194,10 +18188,10 @@
         <v>2061</v>
       </c>
       <c r="S306" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T306" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="307" spans="1:20">
@@ -18229,10 +18223,10 @@
         <v>2062</v>
       </c>
       <c r="S307" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T307" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="308" spans="1:20">
@@ -18264,10 +18258,10 @@
         <v>2063</v>
       </c>
       <c r="S308" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T308" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="309" spans="1:20">
@@ -18299,13 +18293,13 @@
         <v>2064</v>
       </c>
       <c r="Q309" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="S309" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T309" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="310" spans="1:20">
@@ -18340,10 +18334,10 @@
         <v>2226</v>
       </c>
       <c r="S310" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T310" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -18375,10 +18369,10 @@
         <v>2066</v>
       </c>
       <c r="S311" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T311" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="312" spans="1:20">
@@ -18410,10 +18404,10 @@
         <v>2067</v>
       </c>
       <c r="S312" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T312" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="313" spans="1:20">
@@ -18445,13 +18439,13 @@
         <v>2068</v>
       </c>
       <c r="Q313" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="S313" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T313" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -18483,13 +18477,13 @@
         <v>2069</v>
       </c>
       <c r="Q314" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="S314" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T314" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="315" spans="1:20">
@@ -18521,10 +18515,10 @@
         <v>2070</v>
       </c>
       <c r="S315" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T315" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="316" spans="1:20">
@@ -18556,10 +18550,10 @@
         <v>1802</v>
       </c>
       <c r="S316" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T316" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="317" spans="1:20">
@@ -18591,10 +18585,10 @@
         <v>2071</v>
       </c>
       <c r="S317" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T317" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="318" spans="1:20">
@@ -18626,10 +18620,10 @@
         <v>2072</v>
       </c>
       <c r="S318" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T318" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="319" spans="1:20">
@@ -18661,13 +18655,13 @@
         <v>2073</v>
       </c>
       <c r="Q319" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="S319" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T319" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="320" spans="1:20">
@@ -18699,10 +18693,10 @@
         <v>1802</v>
       </c>
       <c r="S320" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T320" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="321" spans="1:20">
@@ -18734,13 +18728,13 @@
         <v>2074</v>
       </c>
       <c r="Q321" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="S321" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T321" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="322" spans="1:20">
@@ -18775,10 +18769,10 @@
         <v>2209</v>
       </c>
       <c r="S322" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T322" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="323" spans="1:20">
@@ -18813,10 +18807,10 @@
         <v>2213</v>
       </c>
       <c r="S323" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T323" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -18848,10 +18842,10 @@
         <v>1802</v>
       </c>
       <c r="S324" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T324" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -18883,13 +18877,13 @@
         <v>2077</v>
       </c>
       <c r="Q325" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="S325" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T325" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="326" spans="1:20">
@@ -18921,10 +18915,10 @@
         <v>2078</v>
       </c>
       <c r="S326" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T326" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -18956,10 +18950,10 @@
         <v>2079</v>
       </c>
       <c r="S327" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T327" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="328" spans="1:20">
@@ -18991,10 +18985,10 @@
         <v>2080</v>
       </c>
       <c r="S328" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T328" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -19026,13 +19020,13 @@
         <v>2081</v>
       </c>
       <c r="Q329" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="S329" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T329" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="330" spans="1:20">
@@ -19064,10 +19058,10 @@
         <v>2082</v>
       </c>
       <c r="S330" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T330" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -19099,10 +19093,10 @@
         <v>2083</v>
       </c>
       <c r="S331" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T331" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="332" spans="1:20">
@@ -19134,10 +19128,10 @@
         <v>1802</v>
       </c>
       <c r="S332" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T332" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -19172,10 +19166,10 @@
         <v>2209</v>
       </c>
       <c r="S333" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T333" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -19210,10 +19204,10 @@
         <v>2209</v>
       </c>
       <c r="S334" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T334" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="335" spans="1:20">
@@ -19245,10 +19239,10 @@
         <v>2086</v>
       </c>
       <c r="S335" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T335" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -19280,13 +19274,13 @@
         <v>2087</v>
       </c>
       <c r="Q336" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="S336" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T336" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="337" spans="1:20">
@@ -19318,10 +19312,10 @@
         <v>2088</v>
       </c>
       <c r="S337" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T337" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="338" spans="1:20">
@@ -19356,10 +19350,10 @@
         <v>2209</v>
       </c>
       <c r="S338" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T338" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="339" spans="1:20">
@@ -19394,10 +19388,10 @@
         <v>2209</v>
       </c>
       <c r="S339" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T339" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="340" spans="1:20">
@@ -19429,13 +19423,13 @@
         <v>2091</v>
       </c>
       <c r="Q340" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="S340" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T340" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="341" spans="1:20">
@@ -19470,10 +19464,10 @@
         <v>2213</v>
       </c>
       <c r="S341" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T341" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="342" spans="1:20">
@@ -19505,13 +19499,13 @@
         <v>2093</v>
       </c>
       <c r="Q342" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="S342" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T342" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -19543,10 +19537,10 @@
         <v>2094</v>
       </c>
       <c r="S343" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T343" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -19578,10 +19572,10 @@
         <v>2095</v>
       </c>
       <c r="S344" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T344" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -19613,10 +19607,10 @@
         <v>2096</v>
       </c>
       <c r="S345" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T345" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -19648,10 +19642,10 @@
         <v>2097</v>
       </c>
       <c r="S346" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T346" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="347" spans="1:20">
@@ -19683,10 +19677,10 @@
         <v>2098</v>
       </c>
       <c r="S347" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T347" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="348" spans="1:20">
@@ -19718,10 +19712,10 @@
         <v>1911</v>
       </c>
       <c r="S348" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T348" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="349" spans="1:20">
@@ -19753,10 +19747,10 @@
         <v>1802</v>
       </c>
       <c r="S349" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T349" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -19788,10 +19782,10 @@
         <v>2099</v>
       </c>
       <c r="S350" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T350" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="351" spans="1:20">
@@ -19823,10 +19817,10 @@
         <v>2100</v>
       </c>
       <c r="S351" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T351" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="352" spans="1:20">
@@ -19858,10 +19852,10 @@
         <v>2101</v>
       </c>
       <c r="S352" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T352" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="353" spans="1:20">
@@ -19893,10 +19887,10 @@
         <v>2102</v>
       </c>
       <c r="S353" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T353" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="354" spans="1:20">
@@ -19928,10 +19922,10 @@
         <v>2103</v>
       </c>
       <c r="S354" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T354" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -19963,13 +19957,13 @@
         <v>2104</v>
       </c>
       <c r="Q355" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="S355" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T355" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -20004,10 +19998,10 @@
         <v>2209</v>
       </c>
       <c r="S356" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T356" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="357" spans="1:20">
@@ -20039,10 +20033,10 @@
         <v>2106</v>
       </c>
       <c r="S357" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T357" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="358" spans="1:20">
@@ -20077,10 +20071,10 @@
         <v>2236</v>
       </c>
       <c r="S358" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T358" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="359" spans="1:20">
@@ -20112,13 +20106,13 @@
         <v>2108</v>
       </c>
       <c r="Q359" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="S359" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T359" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -20150,10 +20144,10 @@
         <v>2109</v>
       </c>
       <c r="S360" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T360" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="361" spans="1:20">
@@ -20188,10 +20182,10 @@
         <v>2213</v>
       </c>
       <c r="S361" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T361" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="362" spans="1:20">
@@ -20226,10 +20220,10 @@
         <v>2209</v>
       </c>
       <c r="S362" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T362" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="363" spans="1:20">
@@ -20261,10 +20255,10 @@
         <v>2111</v>
       </c>
       <c r="S363" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T363" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="364" spans="1:20">
@@ -20296,10 +20290,10 @@
         <v>2112</v>
       </c>
       <c r="S364" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T364" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="365" spans="1:20">
@@ -20328,13 +20322,13 @@
         <v>1708</v>
       </c>
       <c r="R365" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="S365" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T365" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="366" spans="1:20">
@@ -20366,10 +20360,10 @@
         <v>2113</v>
       </c>
       <c r="S366" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T366" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -20401,10 +20395,10 @@
         <v>2114</v>
       </c>
       <c r="S367" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T367" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="368" spans="1:20">
@@ -20436,10 +20430,10 @@
         <v>2115</v>
       </c>
       <c r="S368" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T368" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="369" spans="1:21">
@@ -20471,13 +20465,13 @@
         <v>2116</v>
       </c>
       <c r="Q369" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="S369" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T369" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="370" spans="1:21">
@@ -20509,10 +20503,10 @@
         <v>2117</v>
       </c>
       <c r="S370" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T370" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="371" spans="1:21">
@@ -20544,10 +20538,10 @@
         <v>2118</v>
       </c>
       <c r="S371" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T371" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="372" spans="1:21">
@@ -20579,10 +20573,10 @@
         <v>2119</v>
       </c>
       <c r="S372" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T372" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="373" spans="1:21">
@@ -20617,10 +20611,10 @@
         <v>2209</v>
       </c>
       <c r="S373" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T373" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="374" spans="1:21">
@@ -20652,13 +20646,13 @@
         <v>2121</v>
       </c>
       <c r="Q374" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="S374" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T374" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="375" spans="1:21">
@@ -20690,10 +20684,10 @@
         <v>1999</v>
       </c>
       <c r="S375" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T375" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="376" spans="1:21">
@@ -20725,10 +20719,10 @@
         <v>2122</v>
       </c>
       <c r="S376" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T376" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="377" spans="1:21">
@@ -20760,13 +20754,13 @@
         <v>2123</v>
       </c>
       <c r="Q377" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="S377" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T377" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="378" spans="1:21">
@@ -20801,13 +20795,13 @@
         <v>2177</v>
       </c>
       <c r="S378" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T378" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="U378" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="379" spans="1:21">
@@ -20842,10 +20836,10 @@
         <v>2209</v>
       </c>
       <c r="S379" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T379" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="380" spans="1:21">
@@ -20877,13 +20871,13 @@
         <v>2108</v>
       </c>
       <c r="Q380" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="S380" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T380" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="381" spans="1:21">
@@ -20915,10 +20909,10 @@
         <v>2126</v>
       </c>
       <c r="S381" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T381" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="382" spans="1:21">
@@ -20950,10 +20944,10 @@
         <v>1911</v>
       </c>
       <c r="S382" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T382" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="383" spans="1:21">
@@ -20985,10 +20979,10 @@
         <v>2127</v>
       </c>
       <c r="S383" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T383" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="384" spans="1:21">
@@ -21020,13 +21014,13 @@
         <v>1786</v>
       </c>
       <c r="Q384" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="S384" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T384" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="385" spans="1:20">
@@ -21058,10 +21052,10 @@
         <v>2128</v>
       </c>
       <c r="S385" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T385" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="386" spans="1:20">
@@ -21093,10 +21087,10 @@
         <v>2129</v>
       </c>
       <c r="S386" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T386" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="387" spans="1:20">
@@ -21128,10 +21122,10 @@
         <v>2130</v>
       </c>
       <c r="S387" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T387" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="388" spans="1:20">
@@ -21163,10 +21157,10 @@
         <v>2131</v>
       </c>
       <c r="S388" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T388" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="389" spans="1:20">
@@ -21198,10 +21192,10 @@
         <v>2132</v>
       </c>
       <c r="S389" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T389" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="390" spans="1:20">
@@ -21233,13 +21227,13 @@
         <v>2133</v>
       </c>
       <c r="Q390" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="S390" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T390" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="391" spans="1:20">
@@ -21271,10 +21265,10 @@
         <v>2134</v>
       </c>
       <c r="S391" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T391" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="392" spans="1:20">
@@ -21306,10 +21300,10 @@
         <v>1802</v>
       </c>
       <c r="S392" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T392" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="393" spans="1:20">
@@ -21341,10 +21335,10 @@
         <v>2135</v>
       </c>
       <c r="S393" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T393" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="394" spans="1:20">
@@ -21376,10 +21370,10 @@
         <v>2112</v>
       </c>
       <c r="S394" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T394" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="395" spans="1:20">
@@ -21411,10 +21405,10 @@
         <v>1802</v>
       </c>
       <c r="S395" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T395" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="396" spans="1:20">
@@ -21446,13 +21440,13 @@
         <v>2136</v>
       </c>
       <c r="Q396" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="S396" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T396" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="397" spans="1:20">
@@ -21484,10 +21478,10 @@
         <v>2137</v>
       </c>
       <c r="S397" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T397" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="398" spans="1:20">
@@ -21519,10 +21513,10 @@
         <v>1802</v>
       </c>
       <c r="S398" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T398" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="399" spans="1:20">
@@ -21554,10 +21548,10 @@
         <v>1942</v>
       </c>
       <c r="S399" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T399" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="400" spans="1:20">
@@ -21589,13 +21583,13 @@
         <v>2138</v>
       </c>
       <c r="Q400" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="S400" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T400" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="401" spans="1:20">
@@ -21627,10 +21621,10 @@
         <v>1802</v>
       </c>
       <c r="S401" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T401" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="402" spans="1:20">
@@ -21662,10 +21656,10 @@
         <v>2139</v>
       </c>
       <c r="S402" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T402" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="403" spans="1:20">
@@ -21697,10 +21691,10 @@
         <v>2140</v>
       </c>
       <c r="S403" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T403" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="404" spans="1:20">
@@ -21732,10 +21726,10 @@
         <v>2141</v>
       </c>
       <c r="S404" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T404" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="405" spans="1:20">
@@ -21767,10 +21761,10 @@
         <v>2142</v>
       </c>
       <c r="S405" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T405" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="406" spans="1:20">
@@ -21805,10 +21799,10 @@
         <v>2209</v>
       </c>
       <c r="S406" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T406" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="407" spans="1:20">
@@ -21840,10 +21834,10 @@
         <v>1802</v>
       </c>
       <c r="S407" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T407" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="408" spans="1:20">
@@ -21878,10 +21872,10 @@
         <v>2209</v>
       </c>
       <c r="S408" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T408" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="409" spans="1:20">
@@ -21913,10 +21907,10 @@
         <v>2145</v>
       </c>
       <c r="S409" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T409" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="410" spans="1:20">
@@ -21948,13 +21942,13 @@
         <v>2146</v>
       </c>
       <c r="Q410" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="S410" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T410" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="411" spans="1:20">
@@ -21986,10 +21980,10 @@
         <v>1911</v>
       </c>
       <c r="S411" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T411" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="412" spans="1:20">
@@ -22021,13 +22015,13 @@
         <v>2147</v>
       </c>
       <c r="Q412" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="S412" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T412" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="413" spans="1:20">
@@ -22059,10 +22053,10 @@
         <v>2148</v>
       </c>
       <c r="S413" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T413" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="414" spans="1:20">
@@ -22094,13 +22088,13 @@
         <v>2149</v>
       </c>
       <c r="Q414" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="S414" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T414" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="415" spans="1:20">
@@ -22135,10 +22129,10 @@
         <v>2209</v>
       </c>
       <c r="S415" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T415" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="416" spans="1:20">
@@ -22170,10 +22164,10 @@
         <v>2151</v>
       </c>
       <c r="S416" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T416" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="417" spans="1:20">
@@ -22205,10 +22199,10 @@
         <v>2152</v>
       </c>
       <c r="S417" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T417" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="418" spans="1:20">
@@ -22243,10 +22237,10 @@
         <v>2213</v>
       </c>
       <c r="S418" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T418" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="419" spans="1:20">
@@ -22278,10 +22272,10 @@
         <v>2154</v>
       </c>
       <c r="S419" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T419" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="420" spans="1:20">
@@ -22313,10 +22307,10 @@
         <v>2155</v>
       </c>
       <c r="S420" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T420" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="421" spans="1:20">
@@ -22348,10 +22342,10 @@
         <v>2156</v>
       </c>
       <c r="S421" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T421" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="422" spans="1:20">
@@ -22383,10 +22377,10 @@
         <v>2157</v>
       </c>
       <c r="S422" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T422" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="423" spans="1:20">
@@ -22418,10 +22412,10 @@
         <v>2158</v>
       </c>
       <c r="S423" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T423" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -22453,10 +22447,10 @@
         <v>2159</v>
       </c>
       <c r="S424" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T424" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="425" spans="1:20">
@@ -22485,13 +22479,13 @@
         <v>1708</v>
       </c>
       <c r="R425" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="S425" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T425" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="426" spans="1:20">
@@ -22523,10 +22517,10 @@
         <v>2160</v>
       </c>
       <c r="S426" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T426" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="427" spans="1:20">
@@ -22558,10 +22552,10 @@
         <v>2161</v>
       </c>
       <c r="S427" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T427" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="428" spans="1:20">
@@ -22593,10 +22587,10 @@
         <v>2162</v>
       </c>
       <c r="S428" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T428" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="429" spans="1:20">
@@ -22628,10 +22622,10 @@
         <v>2163</v>
       </c>
       <c r="S429" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T429" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="430" spans="1:20">
@@ -22663,10 +22657,10 @@
         <v>2164</v>
       </c>
       <c r="S430" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T430" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="431" spans="1:20">
@@ -22698,10 +22692,10 @@
         <v>2165</v>
       </c>
       <c r="S431" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T431" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="432" spans="1:20">
@@ -22733,10 +22727,10 @@
         <v>2166</v>
       </c>
       <c r="S432" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T432" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="433" spans="1:20">
@@ -22768,10 +22762,10 @@
         <v>2167</v>
       </c>
       <c r="S433" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T433" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="434" spans="1:20">
@@ -22803,10 +22797,10 @@
         <v>2168</v>
       </c>
       <c r="S434" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T434" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="435" spans="1:20">
@@ -22838,10 +22832,10 @@
         <v>2169</v>
       </c>
       <c r="S435" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T435" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -22873,13 +22867,13 @@
         <v>2170</v>
       </c>
       <c r="Q436" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="S436" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T436" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="437" spans="1:20">
@@ -22911,10 +22905,10 @@
         <v>2171</v>
       </c>
       <c r="S437" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T437" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="438" spans="1:20">
@@ -22946,10 +22940,10 @@
         <v>2172</v>
       </c>
       <c r="S438" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T438" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="439" spans="1:20">
@@ -22981,10 +22975,10 @@
         <v>2173</v>
       </c>
       <c r="S439" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T439" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -23016,10 +23010,10 @@
         <v>2174</v>
       </c>
       <c r="S440" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T440" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="441" spans="1:20">
@@ -23051,10 +23045,10 @@
         <v>2175</v>
       </c>
       <c r="S441" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="T441" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
   </sheetData>
